--- a/Excel-XLSX/UN-ISR.xlsx
+++ b/Excel-XLSX/UN-ISR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="1345">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>mCImW8</t>
+    <t>29fz7X</t>
   </si>
   <si>
     <t>1998</t>
@@ -3777,12 +3777,12 @@
     <t>865</t>
   </si>
   <si>
-    <t>1122</t>
-  </si>
-  <si>
     <t>866</t>
   </si>
   <si>
+    <t>1085</t>
+  </si>
+  <si>
     <t>868</t>
   </si>
   <si>
@@ -3822,21 +3822,21 @@
     <t>878</t>
   </si>
   <si>
-    <t>7168</t>
-  </si>
-  <si>
-    <t>8952</t>
-  </si>
-  <si>
     <t>880</t>
   </si>
   <si>
-    <t>994</t>
+    <t>6659</t>
+  </si>
+  <si>
+    <t>6207</t>
   </si>
   <si>
     <t>881</t>
   </si>
   <si>
+    <t>1133</t>
+  </si>
+  <si>
     <t>882</t>
   </si>
   <si>
@@ -3852,12 +3852,12 @@
     <t>886</t>
   </si>
   <si>
-    <t>975</t>
-  </si>
-  <si>
     <t>887</t>
   </si>
   <si>
+    <t>1016</t>
+  </si>
+  <si>
     <t>888</t>
   </si>
   <si>
@@ -3867,6 +3867,12 @@
     <t>890</t>
   </si>
   <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
     <t>891</t>
   </si>
   <si>
@@ -3882,12 +3888,21 @@
     <t>895</t>
   </si>
   <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
     <t>896</t>
   </si>
   <si>
     <t>898</t>
   </si>
   <si>
+    <t>932</t>
+  </si>
+  <si>
     <t>899</t>
   </si>
   <si>
@@ -3912,6 +3927,15 @@
     <t>906</t>
   </si>
   <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>MOR</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
     <t>907</t>
   </si>
   <si>
@@ -3921,9 +3945,6 @@
     <t>910</t>
   </si>
   <si>
-    <t>3774</t>
-  </si>
-  <si>
     <t>912</t>
   </si>
   <si>
@@ -3936,6 +3957,9 @@
     <t>915</t>
   </si>
   <si>
+    <t>3800</t>
+  </si>
+  <si>
     <t>916</t>
   </si>
   <si>
@@ -3948,12 +3972,6 @@
     <t>919</t>
   </si>
   <si>
-    <t>4426</t>
-  </si>
-  <si>
-    <t>1884</t>
-  </si>
-  <si>
     <t>920</t>
   </si>
   <si>
@@ -3969,6 +3987,36 @@
     <t>924</t>
   </si>
   <si>
+    <t>4513</t>
+  </si>
+  <si>
+    <t>1690</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>SWA</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
     <t>Timor-Leste</t>
   </si>
   <si>
@@ -3978,31 +4026,31 @@
     <t>TLS</t>
   </si>
   <si>
-    <t>925</t>
-  </si>
-  <si>
-    <t>926</t>
-  </si>
-  <si>
-    <t>927</t>
-  </si>
-  <si>
-    <t>928</t>
+    <t>931</t>
+  </si>
+  <si>
+    <t>933</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>935</t>
   </si>
   <si>
     <t>25000</t>
   </si>
   <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>931</t>
-  </si>
-  <si>
-    <t>932</t>
-  </si>
-  <si>
-    <t>933</t>
+    <t>936</t>
+  </si>
+  <si>
+    <t>937</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
+    <t>939</t>
   </si>
 </sst>
 </file>
@@ -4387,7 +4435,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V934"/>
+  <dimension ref="A1:V940"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -62987,7 +63035,7 @@
         <v>32</v>
       </c>
       <c r="O862" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P862" s="2" t="s">
         <v>32</v>
@@ -63028,16 +63076,16 @@
         <v>1248</v>
       </c>
       <c r="F863" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G863" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H863" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I863" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="J863" s="2" t="s">
         <v>29</v>
@@ -63055,7 +63103,7 @@
         <v>32</v>
       </c>
       <c r="O863" s="2" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="P863" s="2" t="s">
         <v>32</v>
@@ -63096,16 +63144,16 @@
         <v>1248</v>
       </c>
       <c r="F864" s="2" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="G864" s="1" t="s">
-        <v>301</v>
+        <v>606</v>
       </c>
       <c r="H864" s="1" t="s">
-        <v>302</v>
+        <v>607</v>
       </c>
       <c r="I864" s="1" t="s">
-        <v>302</v>
+        <v>607</v>
       </c>
       <c r="J864" s="2" t="s">
         <v>29</v>
@@ -63123,7 +63171,7 @@
         <v>32</v>
       </c>
       <c r="O864" s="2" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="P864" s="2" t="s">
         <v>32</v>
@@ -63164,34 +63212,34 @@
         <v>1248</v>
       </c>
       <c r="F865" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G865" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H865" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I865" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J865" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K865" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L865" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M865" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N865" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O865" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="G865" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H865" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I865" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J865" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K865" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L865" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M865" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N865" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O865" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="P865" s="2" t="s">
         <v>32</v>
@@ -63232,16 +63280,16 @@
         <v>1248</v>
       </c>
       <c r="F866" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G866" s="1" t="s">
-        <v>609</v>
+        <v>303</v>
       </c>
       <c r="H866" s="1" t="s">
-        <v>610</v>
+        <v>304</v>
       </c>
       <c r="I866" s="1" t="s">
-        <v>610</v>
+        <v>305</v>
       </c>
       <c r="J866" s="2" t="s">
         <v>29</v>
@@ -63256,10 +63304,10 @@
         <v>31</v>
       </c>
       <c r="N866" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O866" s="2" t="s">
-        <v>1253</v>
+        <v>65</v>
       </c>
       <c r="P866" s="2" t="s">
         <v>32</v>
@@ -63294,22 +63342,22 @@
         <v>22</v>
       </c>
       <c r="D867" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E867" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F867" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G867" s="1" t="s">
-        <v>681</v>
+        <v>609</v>
       </c>
       <c r="H867" s="1" t="s">
-        <v>682</v>
+        <v>610</v>
       </c>
       <c r="I867" s="1" t="s">
-        <v>683</v>
+        <v>610</v>
       </c>
       <c r="J867" s="2" t="s">
         <v>29</v>
@@ -63324,10 +63372,10 @@
         <v>31</v>
       </c>
       <c r="N867" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O867" s="2" t="s">
-        <v>57</v>
+        <v>1254</v>
       </c>
       <c r="P867" s="2" t="s">
         <v>32</v>
@@ -63368,16 +63416,16 @@
         <v>1248</v>
       </c>
       <c r="F868" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G868" s="1" t="s">
-        <v>750</v>
+        <v>681</v>
       </c>
       <c r="H868" s="1" t="s">
-        <v>751</v>
+        <v>682</v>
       </c>
       <c r="I868" s="1" t="s">
-        <v>751</v>
+        <v>683</v>
       </c>
       <c r="J868" s="2" t="s">
         <v>29</v>
@@ -63395,7 +63443,7 @@
         <v>32</v>
       </c>
       <c r="O868" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P868" s="2" t="s">
         <v>32</v>
@@ -63436,16 +63484,16 @@
         <v>1248</v>
       </c>
       <c r="F869" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G869" s="1" t="s">
-        <v>1016</v>
+        <v>750</v>
       </c>
       <c r="H869" s="1" t="s">
-        <v>1017</v>
+        <v>751</v>
       </c>
       <c r="I869" s="1" t="s">
-        <v>1018</v>
+        <v>751</v>
       </c>
       <c r="J869" s="2" t="s">
         <v>29</v>
@@ -63463,7 +63511,7 @@
         <v>32</v>
       </c>
       <c r="O869" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="P869" s="2" t="s">
         <v>32</v>
@@ -63504,16 +63552,16 @@
         <v>1248</v>
       </c>
       <c r="F870" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G870" s="1" t="s">
-        <v>214</v>
+        <v>1016</v>
       </c>
       <c r="H870" s="1" t="s">
-        <v>215</v>
+        <v>1017</v>
       </c>
       <c r="I870" s="1" t="s">
-        <v>216</v>
+        <v>1018</v>
       </c>
       <c r="J870" s="2" t="s">
         <v>29</v>
@@ -63531,7 +63579,7 @@
         <v>32</v>
       </c>
       <c r="O870" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="P870" s="2" t="s">
         <v>32</v>
@@ -63572,16 +63620,16 @@
         <v>1248</v>
       </c>
       <c r="F871" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G871" s="1" t="s">
-        <v>307</v>
+        <v>214</v>
       </c>
       <c r="H871" s="1" t="s">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="I871" s="1" t="s">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="J871" s="2" t="s">
         <v>29</v>
@@ -63596,10 +63644,10 @@
         <v>31</v>
       </c>
       <c r="N871" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O871" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="P871" s="2" t="s">
         <v>32</v>
@@ -63640,16 +63688,16 @@
         <v>1248</v>
       </c>
       <c r="F872" s="2" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="G872" s="1" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="H872" s="1" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="I872" s="1" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="J872" s="2" t="s">
         <v>29</v>
@@ -63664,10 +63712,10 @@
         <v>31</v>
       </c>
       <c r="N872" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O872" s="2" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="P872" s="2" t="s">
         <v>32</v>
@@ -63708,16 +63756,16 @@
         <v>1248</v>
       </c>
       <c r="F873" s="2" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="G873" s="1" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="H873" s="1" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="I873" s="1" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="J873" s="2" t="s">
         <v>29</v>
@@ -63735,7 +63783,7 @@
         <v>32</v>
       </c>
       <c r="O873" s="2" t="s">
-        <v>206</v>
+        <v>343</v>
       </c>
       <c r="P873" s="2" t="s">
         <v>32</v>
@@ -63776,16 +63824,16 @@
         <v>1248</v>
       </c>
       <c r="F874" s="2" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="G874" s="1" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="H874" s="1" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="I874" s="1" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="J874" s="2" t="s">
         <v>29</v>
@@ -63800,10 +63848,10 @@
         <v>31</v>
       </c>
       <c r="N874" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O874" s="2" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="P874" s="2" t="s">
         <v>32</v>
@@ -63844,16 +63892,16 @@
         <v>1248</v>
       </c>
       <c r="F875" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="G875" s="1" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="H875" s="1" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="I875" s="1" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="J875" s="2" t="s">
         <v>29</v>
@@ -63868,10 +63916,10 @@
         <v>31</v>
       </c>
       <c r="N875" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O875" s="2" t="s">
-        <v>453</v>
+        <v>118</v>
       </c>
       <c r="P875" s="2" t="s">
         <v>32</v>
@@ -63886,7 +63934,7 @@
         <v>32</v>
       </c>
       <c r="T875" s="2" t="s">
-        <v>412</v>
+        <v>32</v>
       </c>
       <c r="U875" s="1" t="s">
         <v>34</v>
@@ -63912,16 +63960,16 @@
         <v>1248</v>
       </c>
       <c r="F876" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G876" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H876" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I876" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J876" s="2" t="s">
         <v>29</v>
@@ -63939,7 +63987,7 @@
         <v>32</v>
       </c>
       <c r="O876" s="2" t="s">
-        <v>289</v>
+        <v>453</v>
       </c>
       <c r="P876" s="2" t="s">
         <v>32</v>
@@ -63954,7 +64002,7 @@
         <v>32</v>
       </c>
       <c r="T876" s="2" t="s">
-        <v>32</v>
+        <v>413</v>
       </c>
       <c r="U876" s="1" t="s">
         <v>34</v>
@@ -63980,16 +64028,16 @@
         <v>1248</v>
       </c>
       <c r="F877" s="2" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="G877" s="1" t="s">
-        <v>1264</v>
+        <v>116</v>
       </c>
       <c r="H877" s="1" t="s">
-        <v>1265</v>
+        <v>117</v>
       </c>
       <c r="I877" s="1" t="s">
-        <v>1266</v>
+        <v>117</v>
       </c>
       <c r="J877" s="2" t="s">
         <v>29</v>
@@ -64007,7 +64055,7 @@
         <v>32</v>
       </c>
       <c r="O877" s="2" t="s">
-        <v>33</v>
+        <v>495</v>
       </c>
       <c r="P877" s="2" t="s">
         <v>32</v>
@@ -64048,16 +64096,16 @@
         <v>1248</v>
       </c>
       <c r="F878" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G878" s="1" t="s">
-        <v>1183</v>
+        <v>1264</v>
       </c>
       <c r="H878" s="1" t="s">
-        <v>1184</v>
+        <v>1265</v>
       </c>
       <c r="I878" s="1" t="s">
-        <v>1184</v>
+        <v>1266</v>
       </c>
       <c r="J878" s="2" t="s">
         <v>29</v>
@@ -64075,7 +64123,7 @@
         <v>32</v>
       </c>
       <c r="O878" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="P878" s="2" t="s">
         <v>32</v>
@@ -64116,16 +64164,16 @@
         <v>1248</v>
       </c>
       <c r="F879" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G879" s="1" t="s">
-        <v>317</v>
+        <v>1183</v>
       </c>
       <c r="H879" s="1" t="s">
-        <v>318</v>
+        <v>1184</v>
       </c>
       <c r="I879" s="1" t="s">
-        <v>318</v>
+        <v>1184</v>
       </c>
       <c r="J879" s="2" t="s">
         <v>29</v>
@@ -64143,7 +64191,7 @@
         <v>32</v>
       </c>
       <c r="O879" s="2" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="P879" s="2" t="s">
         <v>32</v>
@@ -64184,16 +64232,16 @@
         <v>1248</v>
       </c>
       <c r="F880" s="2" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="G880" s="1" t="s">
-        <v>72</v>
+        <v>317</v>
       </c>
       <c r="H880" s="1" t="s">
-        <v>73</v>
+        <v>318</v>
       </c>
       <c r="I880" s="1" t="s">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="J880" s="2" t="s">
         <v>29</v>
@@ -64208,10 +64256,10 @@
         <v>31</v>
       </c>
       <c r="N880" s="2" t="s">
-        <v>455</v>
+        <v>32</v>
       </c>
       <c r="O880" s="2" t="s">
-        <v>1268</v>
+        <v>182</v>
       </c>
       <c r="P880" s="2" t="s">
         <v>32</v>
@@ -64226,7 +64274,7 @@
         <v>32</v>
       </c>
       <c r="T880" s="2" t="s">
-        <v>1269</v>
+        <v>32</v>
       </c>
       <c r="U880" s="1" t="s">
         <v>34</v>
@@ -64246,22 +64294,22 @@
         <v>22</v>
       </c>
       <c r="D881" s="2" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="E881" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F881" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="G881" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="H881" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="I881" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="J881" s="2" t="s">
         <v>29</v>
@@ -64276,10 +64324,10 @@
         <v>31</v>
       </c>
       <c r="N881" s="2" t="s">
-        <v>282</v>
+        <v>460</v>
       </c>
       <c r="O881" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="P881" s="2" t="s">
         <v>32</v>
@@ -64294,7 +64342,7 @@
         <v>32</v>
       </c>
       <c r="T881" s="2" t="s">
-        <v>32</v>
+        <v>1270</v>
       </c>
       <c r="U881" s="1" t="s">
         <v>34</v>
@@ -64314,22 +64362,22 @@
         <v>22</v>
       </c>
       <c r="D882" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E882" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F882" s="2" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="G882" s="1" t="s">
-        <v>1191</v>
+        <v>37</v>
       </c>
       <c r="H882" s="1" t="s">
-        <v>1192</v>
+        <v>38</v>
       </c>
       <c r="I882" s="1" t="s">
-        <v>1193</v>
+        <v>38</v>
       </c>
       <c r="J882" s="2" t="s">
         <v>29</v>
@@ -64344,10 +64392,10 @@
         <v>31</v>
       </c>
       <c r="N882" s="2" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="O882" s="2" t="s">
-        <v>52</v>
+        <v>1272</v>
       </c>
       <c r="P882" s="2" t="s">
         <v>32</v>
@@ -64388,16 +64436,16 @@
         <v>1248</v>
       </c>
       <c r="F883" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G883" s="1" t="s">
-        <v>224</v>
+        <v>1191</v>
       </c>
       <c r="H883" s="1" t="s">
-        <v>225</v>
+        <v>1192</v>
       </c>
       <c r="I883" s="1" t="s">
-        <v>225</v>
+        <v>1193</v>
       </c>
       <c r="J883" s="2" t="s">
         <v>29</v>
@@ -64412,10 +64460,10 @@
         <v>31</v>
       </c>
       <c r="N883" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O883" s="2" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="P883" s="2" t="s">
         <v>32</v>
@@ -64456,16 +64504,16 @@
         <v>1248</v>
       </c>
       <c r="F884" s="2" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="G884" s="1" t="s">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="H884" s="1" t="s">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="I884" s="1" t="s">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="J884" s="2" t="s">
         <v>29</v>
@@ -64480,10 +64528,10 @@
         <v>31</v>
       </c>
       <c r="N884" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O884" s="2" t="s">
-        <v>674</v>
+        <v>147</v>
       </c>
       <c r="P884" s="2" t="s">
         <v>32</v>
@@ -64524,16 +64572,16 @@
         <v>1248</v>
       </c>
       <c r="F885" s="2" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="G885" s="1" t="s">
-        <v>1196</v>
+        <v>80</v>
       </c>
       <c r="H885" s="1" t="s">
-        <v>1197</v>
+        <v>81</v>
       </c>
       <c r="I885" s="1" t="s">
-        <v>1198</v>
+        <v>81</v>
       </c>
       <c r="J885" s="2" t="s">
         <v>29</v>
@@ -64551,7 +64599,7 @@
         <v>32</v>
       </c>
       <c r="O885" s="2" t="s">
-        <v>66</v>
+        <v>745</v>
       </c>
       <c r="P885" s="2" t="s">
         <v>32</v>
@@ -64592,16 +64640,16 @@
         <v>1248</v>
       </c>
       <c r="F886" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G886" s="1" t="s">
-        <v>162</v>
+        <v>1196</v>
       </c>
       <c r="H886" s="1" t="s">
-        <v>163</v>
+        <v>1197</v>
       </c>
       <c r="I886" s="1" t="s">
-        <v>164</v>
+        <v>1198</v>
       </c>
       <c r="J886" s="2" t="s">
         <v>29</v>
@@ -64616,10 +64664,10 @@
         <v>31</v>
       </c>
       <c r="N886" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O886" s="2" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="P886" s="2" t="s">
         <v>32</v>
@@ -64660,16 +64708,16 @@
         <v>1248</v>
       </c>
       <c r="F887" s="2" t="s">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="G887" s="1" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="H887" s="1" t="s">
-        <v>395</v>
+        <v>163</v>
       </c>
       <c r="I887" s="1" t="s">
-        <v>395</v>
+        <v>164</v>
       </c>
       <c r="J887" s="2" t="s">
         <v>29</v>
@@ -64684,10 +64732,10 @@
         <v>31</v>
       </c>
       <c r="N887" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O887" s="2" t="s">
-        <v>1278</v>
+        <v>160</v>
       </c>
       <c r="P887" s="2" t="s">
         <v>32</v>
@@ -64722,22 +64770,22 @@
         <v>22</v>
       </c>
       <c r="D888" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E888" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F888" s="2" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="G888" s="1" t="s">
-        <v>125</v>
+        <v>394</v>
       </c>
       <c r="H888" s="1" t="s">
-        <v>126</v>
+        <v>395</v>
       </c>
       <c r="I888" s="1" t="s">
-        <v>126</v>
+        <v>395</v>
       </c>
       <c r="J888" s="2" t="s">
         <v>29</v>
@@ -64752,10 +64800,10 @@
         <v>31</v>
       </c>
       <c r="N888" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O888" s="2" t="s">
-        <v>32</v>
+        <v>1279</v>
       </c>
       <c r="P888" s="2" t="s">
         <v>32</v>
@@ -64796,16 +64844,16 @@
         <v>1248</v>
       </c>
       <c r="F889" s="2" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="G889" s="1" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="H889" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="I889" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="J889" s="2" t="s">
         <v>29</v>
@@ -64820,7 +64868,7 @@
         <v>31</v>
       </c>
       <c r="N889" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="O889" s="2" t="s">
         <v>32</v>
@@ -64864,16 +64912,16 @@
         <v>1248</v>
       </c>
       <c r="F890" s="2" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="G890" s="1" t="s">
-        <v>397</v>
+        <v>42</v>
       </c>
       <c r="H890" s="1" t="s">
-        <v>398</v>
+        <v>43</v>
       </c>
       <c r="I890" s="1" t="s">
-        <v>398</v>
+        <v>43</v>
       </c>
       <c r="J890" s="2" t="s">
         <v>29</v>
@@ -64888,10 +64936,10 @@
         <v>31</v>
       </c>
       <c r="N890" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="O890" s="2" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="P890" s="2" t="s">
         <v>32</v>
@@ -64932,16 +64980,16 @@
         <v>1248</v>
       </c>
       <c r="F891" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G891" s="1" t="s">
-        <v>330</v>
+        <v>1283</v>
       </c>
       <c r="H891" s="1" t="s">
-        <v>331</v>
+        <v>1284</v>
       </c>
       <c r="I891" s="1" t="s">
-        <v>331</v>
+        <v>1284</v>
       </c>
       <c r="J891" s="2" t="s">
         <v>29</v>
@@ -64959,7 +65007,7 @@
         <v>32</v>
       </c>
       <c r="O891" s="2" t="s">
-        <v>461</v>
+        <v>33</v>
       </c>
       <c r="P891" s="2" t="s">
         <v>32</v>
@@ -64994,22 +65042,22 @@
         <v>22</v>
       </c>
       <c r="D892" s="2" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="E892" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F892" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G892" s="1" t="s">
-        <v>708</v>
+        <v>397</v>
       </c>
       <c r="H892" s="1" t="s">
-        <v>709</v>
+        <v>398</v>
       </c>
       <c r="I892" s="1" t="s">
-        <v>709</v>
+        <v>398</v>
       </c>
       <c r="J892" s="2" t="s">
         <v>29</v>
@@ -65027,7 +65075,7 @@
         <v>32</v>
       </c>
       <c r="O892" s="2" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="P892" s="2" t="s">
         <v>32</v>
@@ -65062,22 +65110,22 @@
         <v>22</v>
       </c>
       <c r="D893" s="2" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="E893" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F893" s="2" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="G893" s="1" t="s">
-        <v>556</v>
+        <v>330</v>
       </c>
       <c r="H893" s="1" t="s">
-        <v>557</v>
+        <v>331</v>
       </c>
       <c r="I893" s="1" t="s">
-        <v>558</v>
+        <v>331</v>
       </c>
       <c r="J893" s="2" t="s">
         <v>29</v>
@@ -65092,10 +65140,10 @@
         <v>31</v>
       </c>
       <c r="N893" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O893" s="2" t="s">
-        <v>32</v>
+        <v>775</v>
       </c>
       <c r="P893" s="2" t="s">
         <v>32</v>
@@ -65130,22 +65178,22 @@
         <v>22</v>
       </c>
       <c r="D894" s="2" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="E894" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F894" s="2" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="G894" s="1" t="s">
-        <v>85</v>
+        <v>708</v>
       </c>
       <c r="H894" s="1" t="s">
-        <v>86</v>
+        <v>709</v>
       </c>
       <c r="I894" s="1" t="s">
-        <v>86</v>
+        <v>709</v>
       </c>
       <c r="J894" s="2" t="s">
         <v>29</v>
@@ -65163,7 +65211,7 @@
         <v>32</v>
       </c>
       <c r="O894" s="2" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="P894" s="2" t="s">
         <v>32</v>
@@ -65198,22 +65246,22 @@
         <v>22</v>
       </c>
       <c r="D895" s="2" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="E895" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F895" s="2" t="s">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="G895" s="1" t="s">
-        <v>712</v>
+        <v>556</v>
       </c>
       <c r="H895" s="1" t="s">
-        <v>713</v>
+        <v>557</v>
       </c>
       <c r="I895" s="1" t="s">
-        <v>714</v>
+        <v>558</v>
       </c>
       <c r="J895" s="2" t="s">
         <v>29</v>
@@ -65228,10 +65276,10 @@
         <v>31</v>
       </c>
       <c r="N895" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O895" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P895" s="2" t="s">
         <v>32</v>
@@ -65266,22 +65314,22 @@
         <v>22</v>
       </c>
       <c r="D896" s="2" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E896" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F896" s="2" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="G896" s="1" t="s">
-        <v>238</v>
+        <v>1290</v>
       </c>
       <c r="H896" s="1" t="s">
-        <v>239</v>
+        <v>1291</v>
       </c>
       <c r="I896" s="1" t="s">
-        <v>239</v>
+        <v>1291</v>
       </c>
       <c r="J896" s="2" t="s">
         <v>29</v>
@@ -65299,7 +65347,7 @@
         <v>32</v>
       </c>
       <c r="O896" s="2" t="s">
-        <v>1048</v>
+        <v>33</v>
       </c>
       <c r="P896" s="2" t="s">
         <v>32</v>
@@ -65334,22 +65382,22 @@
         <v>22</v>
       </c>
       <c r="D897" s="2" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="E897" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F897" s="2" t="s">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="G897" s="1" t="s">
-        <v>954</v>
+        <v>85</v>
       </c>
       <c r="H897" s="1" t="s">
-        <v>955</v>
+        <v>86</v>
       </c>
       <c r="I897" s="1" t="s">
-        <v>956</v>
+        <v>86</v>
       </c>
       <c r="J897" s="2" t="s">
         <v>29</v>
@@ -65367,7 +65415,7 @@
         <v>32</v>
       </c>
       <c r="O897" s="2" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="P897" s="2" t="s">
         <v>32</v>
@@ -65408,16 +65456,16 @@
         <v>1248</v>
       </c>
       <c r="F898" s="2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G898" s="1" t="s">
-        <v>340</v>
+        <v>712</v>
       </c>
       <c r="H898" s="1" t="s">
-        <v>341</v>
+        <v>713</v>
       </c>
       <c r="I898" s="1" t="s">
-        <v>341</v>
+        <v>714</v>
       </c>
       <c r="J898" s="2" t="s">
         <v>29</v>
@@ -65435,7 +65483,7 @@
         <v>32</v>
       </c>
       <c r="O898" s="2" t="s">
-        <v>450</v>
+        <v>33</v>
       </c>
       <c r="P898" s="2" t="s">
         <v>32</v>
@@ -65470,22 +65518,22 @@
         <v>22</v>
       </c>
       <c r="D899" s="2" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="E899" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F899" s="2" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="G899" s="1" t="s">
-        <v>959</v>
+        <v>238</v>
       </c>
       <c r="H899" s="1" t="s">
-        <v>960</v>
+        <v>239</v>
       </c>
       <c r="I899" s="1" t="s">
-        <v>960</v>
+        <v>239</v>
       </c>
       <c r="J899" s="2" t="s">
         <v>29</v>
@@ -65503,7 +65551,7 @@
         <v>32</v>
       </c>
       <c r="O899" s="2" t="s">
-        <v>57</v>
+        <v>1294</v>
       </c>
       <c r="P899" s="2" t="s">
         <v>32</v>
@@ -65538,22 +65586,22 @@
         <v>22</v>
       </c>
       <c r="D900" s="2" t="s">
-        <v>1290</v>
+        <v>1295</v>
       </c>
       <c r="E900" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F900" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="G900" s="1" t="s">
-        <v>407</v>
+        <v>954</v>
       </c>
       <c r="H900" s="1" t="s">
-        <v>408</v>
+        <v>955</v>
       </c>
       <c r="I900" s="1" t="s">
-        <v>408</v>
+        <v>956</v>
       </c>
       <c r="J900" s="2" t="s">
         <v>29</v>
@@ -65571,7 +65619,7 @@
         <v>32</v>
       </c>
       <c r="O900" s="2" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="P900" s="2" t="s">
         <v>32</v>
@@ -65606,22 +65654,22 @@
         <v>22</v>
       </c>
       <c r="D901" s="2" t="s">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="E901" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F901" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G901" s="1" t="s">
-        <v>638</v>
+        <v>340</v>
       </c>
       <c r="H901" s="1" t="s">
-        <v>639</v>
+        <v>341</v>
       </c>
       <c r="I901" s="1" t="s">
-        <v>640</v>
+        <v>341</v>
       </c>
       <c r="J901" s="2" t="s">
         <v>29</v>
@@ -65639,7 +65687,7 @@
         <v>32</v>
       </c>
       <c r="O901" s="2" t="s">
-        <v>329</v>
+        <v>412</v>
       </c>
       <c r="P901" s="2" t="s">
         <v>32</v>
@@ -65674,22 +65722,22 @@
         <v>22</v>
       </c>
       <c r="D902" s="2" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="E902" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F902" s="2" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G902" s="1" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="H902" s="1" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="I902" s="1" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="J902" s="2" t="s">
         <v>29</v>
@@ -65707,7 +65755,7 @@
         <v>32</v>
       </c>
       <c r="O902" s="2" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="P902" s="2" t="s">
         <v>32</v>
@@ -65742,22 +65790,22 @@
         <v>22</v>
       </c>
       <c r="D903" s="2" t="s">
-        <v>1293</v>
+        <v>1298</v>
       </c>
       <c r="E903" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F903" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G903" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H903" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I903" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J903" s="2" t="s">
         <v>29</v>
@@ -65775,7 +65823,7 @@
         <v>32</v>
       </c>
       <c r="O903" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P903" s="2" t="s">
         <v>32</v>
@@ -65810,22 +65858,22 @@
         <v>22</v>
       </c>
       <c r="D904" s="2" t="s">
-        <v>1294</v>
+        <v>1299</v>
       </c>
       <c r="E904" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F904" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G904" s="1" t="s">
-        <v>968</v>
+        <v>638</v>
       </c>
       <c r="H904" s="1" t="s">
-        <v>969</v>
+        <v>639</v>
       </c>
       <c r="I904" s="1" t="s">
-        <v>969</v>
+        <v>640</v>
       </c>
       <c r="J904" s="2" t="s">
         <v>29</v>
@@ -65843,7 +65891,7 @@
         <v>32</v>
       </c>
       <c r="O904" s="2" t="s">
-        <v>33</v>
+        <v>994</v>
       </c>
       <c r="P904" s="2" t="s">
         <v>32</v>
@@ -65878,22 +65926,22 @@
         <v>22</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>1295</v>
+        <v>1300</v>
       </c>
       <c r="E905" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F905" s="2" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="G905" s="1" t="s">
-        <v>241</v>
+        <v>964</v>
       </c>
       <c r="H905" s="1" t="s">
-        <v>242</v>
+        <v>965</v>
       </c>
       <c r="I905" s="1" t="s">
-        <v>243</v>
+        <v>965</v>
       </c>
       <c r="J905" s="2" t="s">
         <v>29</v>
@@ -65911,7 +65959,7 @@
         <v>32</v>
       </c>
       <c r="O905" s="2" t="s">
-        <v>448</v>
+        <v>44</v>
       </c>
       <c r="P905" s="2" t="s">
         <v>32</v>
@@ -65946,22 +65994,22 @@
         <v>22</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="E906" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F906" s="2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="G906" s="1" t="s">
-        <v>279</v>
+        <v>410</v>
       </c>
       <c r="H906" s="1" t="s">
-        <v>280</v>
+        <v>411</v>
       </c>
       <c r="I906" s="1" t="s">
-        <v>281</v>
+        <v>411</v>
       </c>
       <c r="J906" s="2" t="s">
         <v>29</v>
@@ -65979,7 +66027,7 @@
         <v>32</v>
       </c>
       <c r="O906" s="2" t="s">
-        <v>287</v>
+        <v>39</v>
       </c>
       <c r="P906" s="2" t="s">
         <v>32</v>
@@ -66014,22 +66062,22 @@
         <v>22</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>1297</v>
+        <v>1302</v>
       </c>
       <c r="E907" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F907" s="2" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="G907" s="1" t="s">
-        <v>131</v>
+        <v>1303</v>
       </c>
       <c r="H907" s="1" t="s">
-        <v>132</v>
+        <v>1304</v>
       </c>
       <c r="I907" s="1" t="s">
-        <v>133</v>
+        <v>1305</v>
       </c>
       <c r="J907" s="2" t="s">
         <v>29</v>
@@ -66044,10 +66092,10 @@
         <v>31</v>
       </c>
       <c r="N907" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="O907" s="2" t="s">
-        <v>1043</v>
+        <v>33</v>
       </c>
       <c r="P907" s="2" t="s">
         <v>32</v>
@@ -66082,22 +66130,22 @@
         <v>22</v>
       </c>
       <c r="D908" s="2" t="s">
-        <v>1298</v>
+        <v>1306</v>
       </c>
       <c r="E908" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F908" s="2" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="G908" s="1" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="H908" s="1" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="I908" s="1" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="J908" s="2" t="s">
         <v>29</v>
@@ -66115,7 +66163,7 @@
         <v>32</v>
       </c>
       <c r="O908" s="2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="P908" s="2" t="s">
         <v>32</v>
@@ -66156,16 +66204,16 @@
         <v>1248</v>
       </c>
       <c r="F909" s="2" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="G909" s="1" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="H909" s="1" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="I909" s="1" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="J909" s="2" t="s">
         <v>29</v>
@@ -66183,7 +66231,7 @@
         <v>32</v>
       </c>
       <c r="O909" s="2" t="s">
-        <v>25</v>
+        <v>448</v>
       </c>
       <c r="P909" s="2" t="s">
         <v>32</v>
@@ -66218,22 +66266,22 @@
         <v>22</v>
       </c>
       <c r="D910" s="2" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="E910" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F910" s="2" t="s">
-        <v>342</v>
+        <v>278</v>
       </c>
       <c r="G910" s="1" t="s">
-        <v>652</v>
+        <v>279</v>
       </c>
       <c r="H910" s="1" t="s">
-        <v>653</v>
+        <v>280</v>
       </c>
       <c r="I910" s="1" t="s">
-        <v>654</v>
+        <v>281</v>
       </c>
       <c r="J910" s="2" t="s">
         <v>29</v>
@@ -66251,7 +66299,7 @@
         <v>32</v>
       </c>
       <c r="O910" s="2" t="s">
-        <v>33</v>
+        <v>311</v>
       </c>
       <c r="P910" s="2" t="s">
         <v>32</v>
@@ -66286,22 +66334,22 @@
         <v>22</v>
       </c>
       <c r="D911" s="2" t="s">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="E911" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F911" s="2" t="s">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="G911" s="1" t="s">
-        <v>346</v>
+        <v>131</v>
       </c>
       <c r="H911" s="1" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
       <c r="I911" s="1" t="s">
-        <v>348</v>
+        <v>133</v>
       </c>
       <c r="J911" s="2" t="s">
         <v>29</v>
@@ -66316,10 +66364,10 @@
         <v>31</v>
       </c>
       <c r="N911" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="O911" s="2" t="s">
-        <v>690</v>
+        <v>1022</v>
       </c>
       <c r="P911" s="2" t="s">
         <v>32</v>
@@ -66360,16 +66408,16 @@
         <v>1248</v>
       </c>
       <c r="F912" s="2" t="s">
-        <v>95</v>
+        <v>328</v>
       </c>
       <c r="G912" s="1" t="s">
-        <v>96</v>
+        <v>975</v>
       </c>
       <c r="H912" s="1" t="s">
-        <v>97</v>
+        <v>976</v>
       </c>
       <c r="I912" s="1" t="s">
-        <v>97</v>
+        <v>976</v>
       </c>
       <c r="J912" s="2" t="s">
         <v>29</v>
@@ -66384,10 +66432,10 @@
         <v>31</v>
       </c>
       <c r="N912" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O912" s="2" t="s">
-        <v>1301</v>
+        <v>25</v>
       </c>
       <c r="P912" s="2" t="s">
         <v>32</v>
@@ -66422,22 +66470,22 @@
         <v>22</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1302</v>
+        <v>1309</v>
       </c>
       <c r="E913" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>136</v>
+        <v>283</v>
       </c>
       <c r="G913" s="1" t="s">
-        <v>137</v>
+        <v>284</v>
       </c>
       <c r="H913" s="1" t="s">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="I913" s="1" t="s">
-        <v>138</v>
+        <v>286</v>
       </c>
       <c r="J913" s="2" t="s">
         <v>29</v>
@@ -66455,7 +66503,7 @@
         <v>32</v>
       </c>
       <c r="O913" s="2" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="P913" s="2" t="s">
         <v>32</v>
@@ -66490,22 +66538,22 @@
         <v>22</v>
       </c>
       <c r="D914" s="2" t="s">
-        <v>1303</v>
+        <v>1310</v>
       </c>
       <c r="E914" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F914" s="2" t="s">
-        <v>53</v>
+        <v>342</v>
       </c>
       <c r="G914" s="1" t="s">
-        <v>54</v>
+        <v>652</v>
       </c>
       <c r="H914" s="1" t="s">
-        <v>55</v>
+        <v>653</v>
       </c>
       <c r="I914" s="1" t="s">
-        <v>55</v>
+        <v>654</v>
       </c>
       <c r="J914" s="2" t="s">
         <v>29</v>
@@ -66520,10 +66568,10 @@
         <v>31</v>
       </c>
       <c r="N914" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O914" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="P914" s="2" t="s">
         <v>32</v>
@@ -66558,22 +66606,22 @@
         <v>22</v>
       </c>
       <c r="D915" s="2" t="s">
-        <v>1304</v>
+        <v>1311</v>
       </c>
       <c r="E915" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F915" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G915" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H915" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="I915" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="J915" s="2" t="s">
         <v>29</v>
@@ -66591,7 +66639,7 @@
         <v>32</v>
       </c>
       <c r="O915" s="2" t="s">
-        <v>52</v>
+        <v>741</v>
       </c>
       <c r="P915" s="2" t="s">
         <v>32</v>
@@ -66626,22 +66674,22 @@
         <v>22</v>
       </c>
       <c r="D916" s="2" t="s">
-        <v>1305</v>
+        <v>1312</v>
       </c>
       <c r="E916" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F916" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="G916" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="H916" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="I916" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="J916" s="2" t="s">
         <v>29</v>
@@ -66656,10 +66704,10 @@
         <v>31</v>
       </c>
       <c r="N916" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O916" s="2" t="s">
-        <v>192</v>
+        <v>1313</v>
       </c>
       <c r="P916" s="2" t="s">
         <v>32</v>
@@ -66694,22 +66742,22 @@
         <v>22</v>
       </c>
       <c r="D917" s="2" t="s">
-        <v>1306</v>
+        <v>1314</v>
       </c>
       <c r="E917" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F917" s="2" t="s">
-        <v>363</v>
+        <v>136</v>
       </c>
       <c r="G917" s="1" t="s">
-        <v>885</v>
+        <v>137</v>
       </c>
       <c r="H917" s="1" t="s">
-        <v>886</v>
+        <v>138</v>
       </c>
       <c r="I917" s="1" t="s">
-        <v>887</v>
+        <v>138</v>
       </c>
       <c r="J917" s="2" t="s">
         <v>29</v>
@@ -66727,7 +66775,7 @@
         <v>32</v>
       </c>
       <c r="O917" s="2" t="s">
-        <v>75</v>
+        <v>489</v>
       </c>
       <c r="P917" s="2" t="s">
         <v>32</v>
@@ -66762,22 +66810,22 @@
         <v>22</v>
       </c>
       <c r="D918" s="2" t="s">
-        <v>1307</v>
+        <v>1315</v>
       </c>
       <c r="E918" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F918" s="2" t="s">
-        <v>369</v>
+        <v>53</v>
       </c>
       <c r="G918" s="1" t="s">
-        <v>541</v>
+        <v>54</v>
       </c>
       <c r="H918" s="1" t="s">
-        <v>542</v>
+        <v>55</v>
       </c>
       <c r="I918" s="1" t="s">
-        <v>542</v>
+        <v>55</v>
       </c>
       <c r="J918" s="2" t="s">
         <v>29</v>
@@ -66792,10 +66840,10 @@
         <v>31</v>
       </c>
       <c r="N918" s="2" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="O918" s="2" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="P918" s="2" t="s">
         <v>32</v>
@@ -66810,7 +66858,7 @@
         <v>32</v>
       </c>
       <c r="T918" s="2" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="U918" s="1" t="s">
         <v>34</v>
@@ -66830,22 +66878,22 @@
         <v>22</v>
       </c>
       <c r="D919" s="2" t="s">
-        <v>1308</v>
+        <v>1316</v>
       </c>
       <c r="E919" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F919" s="2" t="s">
-        <v>178</v>
+        <v>351</v>
       </c>
       <c r="G919" s="1" t="s">
-        <v>179</v>
+        <v>352</v>
       </c>
       <c r="H919" s="1" t="s">
-        <v>180</v>
+        <v>353</v>
       </c>
       <c r="I919" s="1" t="s">
-        <v>181</v>
+        <v>353</v>
       </c>
       <c r="J919" s="2" t="s">
         <v>29</v>
@@ -66863,7 +66911,7 @@
         <v>32</v>
       </c>
       <c r="O919" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P919" s="2" t="s">
         <v>32</v>
@@ -66875,7 +66923,7 @@
         <v>32</v>
       </c>
       <c r="S919" s="2" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="T919" s="2" t="s">
         <v>32</v>
@@ -66898,22 +66946,22 @@
         <v>22</v>
       </c>
       <c r="D920" s="2" t="s">
-        <v>1309</v>
+        <v>1317</v>
       </c>
       <c r="E920" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F920" s="2" t="s">
-        <v>103</v>
+        <v>362</v>
       </c>
       <c r="G920" s="1" t="s">
-        <v>104</v>
+        <v>1140</v>
       </c>
       <c r="H920" s="1" t="s">
-        <v>105</v>
+        <v>1141</v>
       </c>
       <c r="I920" s="1" t="s">
-        <v>106</v>
+        <v>1142</v>
       </c>
       <c r="J920" s="2" t="s">
         <v>29</v>
@@ -66928,10 +66976,10 @@
         <v>31</v>
       </c>
       <c r="N920" s="2" t="s">
-        <v>796</v>
+        <v>32</v>
       </c>
       <c r="O920" s="2" t="s">
-        <v>1310</v>
+        <v>33</v>
       </c>
       <c r="P920" s="2" t="s">
         <v>32</v>
@@ -66946,7 +66994,7 @@
         <v>32</v>
       </c>
       <c r="T920" s="2" t="s">
-        <v>1311</v>
+        <v>32</v>
       </c>
       <c r="U920" s="1" t="s">
         <v>34</v>
@@ -66966,22 +67014,22 @@
         <v>22</v>
       </c>
       <c r="D921" s="2" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="E921" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F921" s="2" t="s">
-        <v>377</v>
+        <v>58</v>
       </c>
       <c r="G921" s="1" t="s">
-        <v>429</v>
+        <v>59</v>
       </c>
       <c r="H921" s="1" t="s">
-        <v>430</v>
+        <v>60</v>
       </c>
       <c r="I921" s="1" t="s">
-        <v>431</v>
+        <v>60</v>
       </c>
       <c r="J921" s="2" t="s">
         <v>29</v>
@@ -66999,7 +67047,7 @@
         <v>32</v>
       </c>
       <c r="O921" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="P921" s="2" t="s">
         <v>32</v>
@@ -67034,22 +67082,22 @@
         <v>22</v>
       </c>
       <c r="D922" s="2" t="s">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="E922" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F922" s="2" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="G922" s="1" t="s">
-        <v>665</v>
+        <v>885</v>
       </c>
       <c r="H922" s="1" t="s">
-        <v>666</v>
+        <v>886</v>
       </c>
       <c r="I922" s="1" t="s">
-        <v>666</v>
+        <v>887</v>
       </c>
       <c r="J922" s="2" t="s">
         <v>29</v>
@@ -67067,7 +67115,7 @@
         <v>32</v>
       </c>
       <c r="O922" s="2" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="P922" s="2" t="s">
         <v>32</v>
@@ -67102,22 +67150,22 @@
         <v>22</v>
       </c>
       <c r="D923" s="2" t="s">
-        <v>1314</v>
+        <v>1320</v>
       </c>
       <c r="E923" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F923" s="2" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="G923" s="1" t="s">
-        <v>812</v>
+        <v>541</v>
       </c>
       <c r="H923" s="1" t="s">
-        <v>813</v>
+        <v>542</v>
       </c>
       <c r="I923" s="1" t="s">
-        <v>813</v>
+        <v>542</v>
       </c>
       <c r="J923" s="2" t="s">
         <v>29</v>
@@ -67132,10 +67180,10 @@
         <v>31</v>
       </c>
       <c r="N923" s="2" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="O923" s="2" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="P923" s="2" t="s">
         <v>32</v>
@@ -67150,7 +67198,7 @@
         <v>32</v>
       </c>
       <c r="T923" s="2" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="U923" s="1" t="s">
         <v>34</v>
@@ -67170,22 +67218,22 @@
         <v>22</v>
       </c>
       <c r="D924" s="2" t="s">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="E924" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F924" s="2" t="s">
-        <v>385</v>
+        <v>178</v>
       </c>
       <c r="G924" s="1" t="s">
-        <v>815</v>
+        <v>179</v>
       </c>
       <c r="H924" s="1" t="s">
-        <v>816</v>
+        <v>180</v>
       </c>
       <c r="I924" s="1" t="s">
-        <v>816</v>
+        <v>181</v>
       </c>
       <c r="J924" s="2" t="s">
         <v>29</v>
@@ -67203,7 +67251,7 @@
         <v>32</v>
       </c>
       <c r="O924" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P924" s="2" t="s">
         <v>32</v>
@@ -67215,7 +67263,7 @@
         <v>32</v>
       </c>
       <c r="S924" s="2" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="T924" s="2" t="s">
         <v>32</v>
@@ -67238,22 +67286,22 @@
         <v>22</v>
       </c>
       <c r="D925" s="2" t="s">
-        <v>1316</v>
+        <v>1322</v>
       </c>
       <c r="E925" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F925" s="2" t="s">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="G925" s="1" t="s">
-        <v>1317</v>
+        <v>104</v>
       </c>
       <c r="H925" s="1" t="s">
-        <v>1318</v>
+        <v>105</v>
       </c>
       <c r="I925" s="1" t="s">
-        <v>1319</v>
+        <v>106</v>
       </c>
       <c r="J925" s="2" t="s">
         <v>29</v>
@@ -67268,10 +67316,10 @@
         <v>31</v>
       </c>
       <c r="N925" s="2" t="s">
-        <v>32</v>
+        <v>796</v>
       </c>
       <c r="O925" s="2" t="s">
-        <v>33</v>
+        <v>1323</v>
       </c>
       <c r="P925" s="2" t="s">
         <v>32</v>
@@ -67286,7 +67334,7 @@
         <v>32</v>
       </c>
       <c r="T925" s="2" t="s">
-        <v>32</v>
+        <v>1324</v>
       </c>
       <c r="U925" s="1" t="s">
         <v>34</v>
@@ -67306,22 +67354,22 @@
         <v>22</v>
       </c>
       <c r="D926" s="2" t="s">
-        <v>1320</v>
+        <v>1325</v>
       </c>
       <c r="E926" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F926" s="2" t="s">
-        <v>249</v>
+        <v>372</v>
       </c>
       <c r="G926" s="1" t="s">
-        <v>250</v>
+        <v>1326</v>
       </c>
       <c r="H926" s="1" t="s">
-        <v>251</v>
+        <v>1327</v>
       </c>
       <c r="I926" s="1" t="s">
-        <v>252</v>
+        <v>1328</v>
       </c>
       <c r="J926" s="2" t="s">
         <v>29</v>
@@ -67339,7 +67387,7 @@
         <v>32</v>
       </c>
       <c r="O926" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P926" s="2" t="s">
         <v>32</v>
@@ -67374,22 +67422,22 @@
         <v>22</v>
       </c>
       <c r="D927" s="2" t="s">
-        <v>1321</v>
+        <v>1329</v>
       </c>
       <c r="E927" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F927" s="2" t="s">
-        <v>144</v>
+        <v>377</v>
       </c>
       <c r="G927" s="1" t="s">
-        <v>145</v>
+        <v>429</v>
       </c>
       <c r="H927" s="1" t="s">
-        <v>146</v>
+        <v>430</v>
       </c>
       <c r="I927" s="1" t="s">
-        <v>146</v>
+        <v>431</v>
       </c>
       <c r="J927" s="2" t="s">
         <v>29</v>
@@ -67404,10 +67452,10 @@
         <v>31</v>
       </c>
       <c r="N927" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O927" s="2" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="P927" s="2" t="s">
         <v>32</v>
@@ -67442,22 +67490,22 @@
         <v>22</v>
       </c>
       <c r="D928" s="2" t="s">
-        <v>1322</v>
+        <v>1330</v>
       </c>
       <c r="E928" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F928" s="2" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="G928" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H928" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I928" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="J928" s="2" t="s">
         <v>29</v>
@@ -67475,7 +67523,7 @@
         <v>32</v>
       </c>
       <c r="O928" s="2" t="s">
-        <v>613</v>
+        <v>378</v>
       </c>
       <c r="P928" s="2" t="s">
         <v>32</v>
@@ -67510,22 +67558,22 @@
         <v>22</v>
       </c>
       <c r="D929" s="2" t="s">
-        <v>1323</v>
+        <v>1331</v>
       </c>
       <c r="E929" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F929" s="2" t="s">
-        <v>193</v>
+        <v>382</v>
       </c>
       <c r="G929" s="1" t="s">
-        <v>194</v>
+        <v>812</v>
       </c>
       <c r="H929" s="1" t="s">
-        <v>195</v>
+        <v>813</v>
       </c>
       <c r="I929" s="1" t="s">
-        <v>196</v>
+        <v>813</v>
       </c>
       <c r="J929" s="2" t="s">
         <v>29</v>
@@ -67540,10 +67588,10 @@
         <v>31</v>
       </c>
       <c r="N929" s="2" t="s">
-        <v>421</v>
+        <v>32</v>
       </c>
       <c r="O929" s="2" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="P929" s="2" t="s">
         <v>32</v>
@@ -67584,16 +67632,16 @@
         <v>1248</v>
       </c>
       <c r="F930" s="2" t="s">
-        <v>148</v>
+        <v>385</v>
       </c>
       <c r="G930" s="1" t="s">
-        <v>149</v>
+        <v>815</v>
       </c>
       <c r="H930" s="1" t="s">
-        <v>150</v>
+        <v>816</v>
       </c>
       <c r="I930" s="1" t="s">
-        <v>150</v>
+        <v>816</v>
       </c>
       <c r="J930" s="2" t="s">
         <v>29</v>
@@ -67608,10 +67656,10 @@
         <v>31</v>
       </c>
       <c r="N930" s="2" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="O930" s="2" t="s">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="P930" s="2" t="s">
         <v>32</v>
@@ -67626,7 +67674,7 @@
         <v>32</v>
       </c>
       <c r="T930" s="2" t="s">
-        <v>1324</v>
+        <v>32</v>
       </c>
       <c r="U930" s="1" t="s">
         <v>34</v>
@@ -67646,22 +67694,22 @@
         <v>22</v>
       </c>
       <c r="D931" s="2" t="s">
-        <v>1325</v>
+        <v>1332</v>
       </c>
       <c r="E931" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F931" s="2" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="G931" s="1" t="s">
-        <v>1242</v>
+        <v>1333</v>
       </c>
       <c r="H931" s="1" t="s">
-        <v>1243</v>
+        <v>1334</v>
       </c>
       <c r="I931" s="1" t="s">
-        <v>1243</v>
+        <v>1335</v>
       </c>
       <c r="J931" s="2" t="s">
         <v>29</v>
@@ -67679,7 +67727,7 @@
         <v>32</v>
       </c>
       <c r="O931" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="P931" s="2" t="s">
         <v>32</v>
@@ -67714,22 +67762,22 @@
         <v>22</v>
       </c>
       <c r="D932" s="2" t="s">
-        <v>1326</v>
+        <v>1336</v>
       </c>
       <c r="E932" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F932" s="2" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="G932" s="1" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="H932" s="1" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="I932" s="1" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="J932" s="2" t="s">
         <v>29</v>
@@ -67747,7 +67795,7 @@
         <v>32</v>
       </c>
       <c r="O932" s="2" t="s">
-        <v>432</v>
+        <v>135</v>
       </c>
       <c r="P932" s="2" t="s">
         <v>32</v>
@@ -67782,22 +67830,22 @@
         <v>22</v>
       </c>
       <c r="D933" s="2" t="s">
-        <v>1327</v>
+        <v>1294</v>
       </c>
       <c r="E933" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F933" s="2" t="s">
-        <v>421</v>
+        <v>144</v>
       </c>
       <c r="G933" s="1" t="s">
-        <v>1005</v>
+        <v>145</v>
       </c>
       <c r="H933" s="1" t="s">
-        <v>1006</v>
+        <v>146</v>
       </c>
       <c r="I933" s="1" t="s">
-        <v>1007</v>
+        <v>146</v>
       </c>
       <c r="J933" s="2" t="s">
         <v>29</v>
@@ -67812,10 +67860,10 @@
         <v>31</v>
       </c>
       <c r="N933" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O933" s="2" t="s">
-        <v>122</v>
+        <v>409</v>
       </c>
       <c r="P933" s="2" t="s">
         <v>32</v>
@@ -67850,60 +67898,468 @@
         <v>22</v>
       </c>
       <c r="D934" s="2" t="s">
-        <v>1328</v>
+        <v>1337</v>
       </c>
       <c r="E934" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="F934" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G934" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="H934" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I934" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="J934" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K934" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L934" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M934" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N934" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O934" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="P934" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q934" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R934" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S934" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T934" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U934" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V934" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B935" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C935" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D935" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E935" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F935" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G935" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H935" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I935" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J935" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K935" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L935" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M935" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N935" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G934" s="1" t="s">
+      <c r="O935" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P935" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q935" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R935" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S935" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T935" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U935" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V935" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B936" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C936" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D936" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E936" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F936" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G936" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H936" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I936" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J936" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K936" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L936" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M936" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N936" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O936" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P936" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q936" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R936" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S936" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T936" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="U936" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V936" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C937" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D937" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E937" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F937" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G937" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H937" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I937" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J937" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K937" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L937" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M937" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N937" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O937" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P937" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q937" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R937" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S937" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T937" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U937" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V937" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C938" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D938" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E938" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F938" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G938" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H938" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I938" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J938" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K938" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L938" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M938" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N938" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O938" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="P938" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q938" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R938" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S938" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T938" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U938" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V938" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C939" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D939" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E939" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F939" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G939" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H939" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I939" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J939" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K939" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L939" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M939" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N939" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O939" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="P939" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q939" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R939" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S939" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T939" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U939" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V939" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B940" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C940" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D940" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E940" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F940" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G940" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H934" s="1" t="s">
+      <c r="H940" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I934" s="1" t="s">
+      <c r="I940" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="J934" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K934" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L934" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M934" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N934" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O934" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P934" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q934" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R934" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S934" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T934" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U934" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V934" s="2" t="s">
+      <c r="J940" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K940" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L940" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M940" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N940" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O940" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P940" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q940" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R940" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S940" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T940" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U940" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V940" s="2" t="s">
         <v>32</v>
       </c>
     </row>
